--- a/GGG Whole Raw Set Clean.xlsx
+++ b/GGG Whole Raw Set Clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafguerr/Box Sync/Ogbunu/profitR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C4F6F49-5BCC-704C-BE48-BEF9B34E539A}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A5AAF6-6980-2D41-A3A1-EE59B0976913}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="460" windowWidth="32620" windowHeight="18320" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4300" yWindow="460" windowWidth="32620" windowHeight="18320" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IC50 WT" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="41">
   <si>
     <t>E. coli</t>
   </si>
@@ -110,9 +110,6 @@
     <t>111</t>
   </si>
   <si>
-    <t>Replicates</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -123,6 +120,42 @@
   </si>
   <si>
     <t>Genotype</t>
+  </si>
+  <si>
+    <t>Rep1</t>
+  </si>
+  <si>
+    <t>Rep2</t>
+  </si>
+  <si>
+    <t>Rep3</t>
+  </si>
+  <si>
+    <t>Rep4</t>
+  </si>
+  <si>
+    <t>Rep5</t>
+  </si>
+  <si>
+    <t>Rep6</t>
+  </si>
+  <si>
+    <t>Rep7</t>
+  </si>
+  <si>
+    <t>Rep8</t>
+  </si>
+  <si>
+    <t>Rep9</t>
+  </si>
+  <si>
+    <t>Rep10</t>
+  </si>
+  <si>
+    <t>Rep11</t>
+  </si>
+  <si>
+    <t>Rep12</t>
   </si>
 </sst>
 </file>
@@ -194,18 +227,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -285,15 +312,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -301,44 +327,40 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
-    <cellStyle name="20% - Accent2" xfId="4" builtinId="34"/>
-    <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
-    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
+  <cellStyles count="5">
+    <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
+    <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
+    <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -643,7 +665,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D1" sqref="D1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -655,21 +677,33 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -707,7 +741,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -925,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4">
         <v>43</v>
@@ -1133,7 +1167,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="4">
         <v>2.4900000000000002</v>
@@ -1316,9 +1350,6 @@
       <c r="K25" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1328,7 +1359,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1340,18 +1371,24 @@
   <sheetData>
     <row r="1" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1379,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>68</v>
@@ -1523,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>124</v>
@@ -1667,7 +1704,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>2.1</v>
@@ -1789,9 +1826,6 @@
       <c r="B26" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1801,7 +1835,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1813,21 +1847,31 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -1864,7 +1908,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>409</v>
@@ -2068,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>96.7</v>
@@ -2239,7 +2283,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>6.3</v>
@@ -2360,9 +2404,6 @@
       <c r="M25" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:H1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2372,7 +2413,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D1" sqref="D1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2385,25 +2426,41 @@
   <sheetData>
     <row r="1" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -2442,7 +2499,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
         <v>42410.098373019806</v>
@@ -2676,7 +2733,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1">
         <v>2772.5177735076372</v>
@@ -2924,7 +2981,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1">
         <v>1062.9598951865826</v>
@@ -3167,9 +3224,6 @@
       <c r="B26" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:L1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3178,8 +3232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3193,28 +3247,50 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -3258,7 +3334,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
         <v>10405.833769875824</v>
@@ -3540,7 +3616,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1">
         <v>16236.787426548524</v>
@@ -3822,7 +3898,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1">
         <v>3215.875425570156</v>
@@ -4061,9 +4137,6 @@
       <c r="O26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:O1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -4073,8 +4146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4087,23 +4160,35 @@
   <sheetData>
     <row r="1" spans="1:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="E1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -4145,7 +4230,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
         <v>71377.441450562183</v>
@@ -4397,7 +4482,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1">
         <v>12199.215144957536</v>
@@ -4665,7 +4750,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="1">
         <v>5071.4049787435415</v>
@@ -4890,9 +4975,6 @@
       <c r="Q25" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D1:J1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>